--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Wnt4-Fzd2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Wnt4-Fzd2.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.408675</v>
+        <v>1.433753</v>
       </c>
       <c r="H2">
-        <v>4.226025</v>
+        <v>4.301259</v>
       </c>
       <c r="I2">
-        <v>0.2345535261744868</v>
+        <v>0.2048034833446371</v>
       </c>
       <c r="J2">
-        <v>0.2345535261744868</v>
+        <v>0.2048034833446371</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.4403303333333333</v>
+        <v>0.513343</v>
       </c>
       <c r="N2">
-        <v>1.320991</v>
+        <v>1.540029</v>
       </c>
       <c r="O2">
-        <v>0.02587852307343662</v>
+        <v>0.02896400434489499</v>
       </c>
       <c r="P2">
-        <v>0.02587852307343662</v>
+        <v>0.02896400434489499</v>
       </c>
       <c r="Q2">
-        <v>0.6202823323083333</v>
+        <v>0.736007066279</v>
       </c>
       <c r="R2">
-        <v>5.582540990775</v>
+        <v>6.624063596510999</v>
       </c>
       <c r="S2">
-        <v>0.006069898839062378</v>
+        <v>0.005931928981443699</v>
       </c>
       <c r="T2">
-        <v>0.006069898839062377</v>
+        <v>0.005931928981443698</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.408675</v>
+        <v>1.433753</v>
       </c>
       <c r="H3">
-        <v>4.226025</v>
+        <v>4.301259</v>
       </c>
       <c r="I3">
-        <v>0.2345535261744868</v>
+        <v>0.2048034833446371</v>
       </c>
       <c r="J3">
-        <v>0.2345535261744868</v>
+        <v>0.2048034833446371</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>46.952962</v>
       </c>
       <c r="O3">
-        <v>0.9198195222247485</v>
+        <v>0.8830650561604291</v>
       </c>
       <c r="P3">
-        <v>0.9198195222247485</v>
+        <v>0.8830650561604291</v>
       </c>
       <c r="Q3">
-        <v>22.04715458178333</v>
+        <v>22.43965004212867</v>
       </c>
       <c r="R3">
-        <v>198.42439123605</v>
+        <v>201.956850379158</v>
       </c>
       <c r="S3">
-        <v>0.2157469123819465</v>
+        <v>0.1808547995215835</v>
       </c>
       <c r="T3">
-        <v>0.2157469123819465</v>
+        <v>0.1808547995215835</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.408675</v>
+        <v>1.433753</v>
       </c>
       <c r="H4">
-        <v>4.226025</v>
+        <v>4.301259</v>
       </c>
       <c r="I4">
-        <v>0.2345535261744868</v>
+        <v>0.2048034833446371</v>
       </c>
       <c r="J4">
-        <v>0.2345535261744868</v>
+        <v>0.2048034833446371</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.001510333333333333</v>
+        <v>0.04863733333333333</v>
       </c>
       <c r="N4">
-        <v>0.004531</v>
+        <v>0.145912</v>
       </c>
       <c r="O4">
-        <v>8.876335118539137E-05</v>
+        <v>0.00274423131121058</v>
       </c>
       <c r="P4">
-        <v>8.876335118539136E-05</v>
+        <v>0.00274423131121058</v>
       </c>
       <c r="Q4">
-        <v>0.002127568808333333</v>
+        <v>0.06973392257866666</v>
       </c>
       <c r="R4">
-        <v>0.019148119275</v>
+        <v>0.6276053032079999</v>
       </c>
       <c r="S4">
-        <v>2.081975701559786E-05</v>
+        <v>0.0005620281316393476</v>
       </c>
       <c r="T4">
-        <v>2.081975701559786E-05</v>
+        <v>0.0005620281316393475</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.408675</v>
+        <v>1.433753</v>
       </c>
       <c r="H5">
-        <v>4.226025</v>
+        <v>4.301259</v>
       </c>
       <c r="I5">
-        <v>0.2345535261744868</v>
+        <v>0.2048034833446371</v>
       </c>
       <c r="J5">
-        <v>0.2345535261744868</v>
+        <v>0.2048034833446371</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.914341</v>
+        <v>1.499596</v>
       </c>
       <c r="N5">
-        <v>2.743023</v>
+        <v>4.498788</v>
       </c>
       <c r="O5">
-        <v>0.0537364630012372</v>
+        <v>0.08461068926543686</v>
       </c>
       <c r="P5">
-        <v>0.0537364630012372</v>
+        <v>0.08461068926543686</v>
       </c>
       <c r="Q5">
-        <v>1.288009308175</v>
+        <v>2.150050263788</v>
       </c>
       <c r="R5">
-        <v>11.592083773575</v>
+        <v>19.350452374092</v>
       </c>
       <c r="S5">
-        <v>0.01260407688108503</v>
+        <v>0.01732856388975217</v>
       </c>
       <c r="T5">
-        <v>0.01260407688108503</v>
+        <v>0.01732856388975216</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.408675</v>
+        <v>1.433753</v>
       </c>
       <c r="H6">
-        <v>4.226025</v>
+        <v>4.301259</v>
       </c>
       <c r="I6">
-        <v>0.2345535261744868</v>
+        <v>0.2048034833446371</v>
       </c>
       <c r="J6">
-        <v>0.2345535261744868</v>
+        <v>0.2048034833446371</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.008111666666666666</v>
+        <v>0.010918</v>
       </c>
       <c r="N6">
-        <v>0.024335</v>
+        <v>0.032754</v>
       </c>
       <c r="O6">
-        <v>0.0004767283493922972</v>
+        <v>0.0006160189180286153</v>
       </c>
       <c r="P6">
-        <v>0.0004767283493922972</v>
+        <v>0.0006160189180286153</v>
       </c>
       <c r="Q6">
-        <v>0.01142670204166667</v>
+        <v>0.015653715254</v>
       </c>
       <c r="R6">
-        <v>0.102840318375</v>
+        <v>0.140883437286</v>
       </c>
       <c r="S6">
-        <v>0.0001118183153773061</v>
+        <v>0.0001261628202184549</v>
       </c>
       <c r="T6">
-        <v>0.0001118183153773061</v>
+        <v>0.0001261628202184549</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,13 +853,13 @@
         <v>1.436364333333333</v>
       </c>
       <c r="H7">
-        <v>4.309092999999999</v>
+        <v>4.309093</v>
       </c>
       <c r="I7">
-        <v>0.2391639798069812</v>
+        <v>0.2051764974989863</v>
       </c>
       <c r="J7">
-        <v>0.2391639798069812</v>
+        <v>0.2051764974989863</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.4403303333333333</v>
+        <v>0.513343</v>
       </c>
       <c r="N7">
-        <v>1.320991</v>
+        <v>1.540029</v>
       </c>
       <c r="O7">
-        <v>0.02587852307343662</v>
+        <v>0.02896400434489499</v>
       </c>
       <c r="P7">
-        <v>0.02587852307343662</v>
+        <v>0.02896400434489499</v>
       </c>
       <c r="Q7">
-        <v>0.6324747856847776</v>
+        <v>0.7373475759663334</v>
       </c>
       <c r="R7">
-        <v>5.692273071162998</v>
+        <v>6.636128183696999</v>
       </c>
       <c r="S7">
-        <v>0.006189210569769892</v>
+        <v>0.005942732965030976</v>
       </c>
       <c r="T7">
-        <v>0.006189210569769892</v>
+        <v>0.005942732965030975</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,13 +915,13 @@
         <v>1.436364333333333</v>
       </c>
       <c r="H8">
-        <v>4.309092999999999</v>
+        <v>4.309093</v>
       </c>
       <c r="I8">
-        <v>0.2391639798069812</v>
+        <v>0.2051764974989863</v>
       </c>
       <c r="J8">
-        <v>0.2391639798069812</v>
+        <v>0.2051764974989863</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>46.952962</v>
       </c>
       <c r="O8">
-        <v>0.9198195222247485</v>
+        <v>0.8830650561604291</v>
       </c>
       <c r="P8">
-        <v>0.9198195222247485</v>
+        <v>0.8830650561604291</v>
       </c>
       <c r="Q8">
-        <v>22.48051998705177</v>
+        <v>22.48051998705178</v>
       </c>
       <c r="R8">
         <v>202.324679883466</v>
       </c>
       <c r="S8">
-        <v>0.2199876976394269</v>
+        <v>0.1811841952867425</v>
       </c>
       <c r="T8">
-        <v>0.2199876976394268</v>
+        <v>0.1811841952867425</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,43 +977,43 @@
         <v>1.436364333333333</v>
       </c>
       <c r="H9">
-        <v>4.309092999999999</v>
+        <v>4.309093</v>
       </c>
       <c r="I9">
-        <v>0.2391639798069812</v>
+        <v>0.2051764974989863</v>
       </c>
       <c r="J9">
-        <v>0.2391639798069812</v>
+        <v>0.2051764974989863</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.001510333333333333</v>
+        <v>0.04863733333333333</v>
       </c>
       <c r="N9">
-        <v>0.004531</v>
+        <v>0.145912</v>
       </c>
       <c r="O9">
-        <v>8.876335118539137E-05</v>
+        <v>0.00274423131121058</v>
       </c>
       <c r="P9">
-        <v>8.876335118539136E-05</v>
+        <v>0.00274423131121058</v>
       </c>
       <c r="Q9">
-        <v>0.002169388931444444</v>
+        <v>0.06986093086844444</v>
       </c>
       <c r="R9">
-        <v>0.019524500383</v>
+        <v>0.6287483778159999</v>
       </c>
       <c r="S9">
-        <v>2.122899633050292E-05</v>
+        <v>0.0005630517687612375</v>
       </c>
       <c r="T9">
-        <v>2.122899633050292E-05</v>
+        <v>0.0005630517687612375</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,13 +1039,13 @@
         <v>1.436364333333333</v>
       </c>
       <c r="H10">
-        <v>4.309092999999999</v>
+        <v>4.309093</v>
       </c>
       <c r="I10">
-        <v>0.2391639798069812</v>
+        <v>0.2051764974989863</v>
       </c>
       <c r="J10">
-        <v>0.2391639798069812</v>
+        <v>0.2051764974989863</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.914341</v>
+        <v>1.499596</v>
       </c>
       <c r="N10">
-        <v>2.743023</v>
+        <v>4.498788</v>
       </c>
       <c r="O10">
-        <v>0.0537364630012372</v>
+        <v>0.08461068926543686</v>
       </c>
       <c r="P10">
-        <v>0.0537364630012372</v>
+        <v>0.08461068926543686</v>
       </c>
       <c r="Q10">
-        <v>1.313326800904333</v>
+        <v>2.153966208809333</v>
       </c>
       <c r="R10">
-        <v>11.819941208139</v>
+        <v>19.385695879284</v>
       </c>
       <c r="S10">
-        <v>0.01285182635212649</v>
+        <v>0.01736012487445741</v>
       </c>
       <c r="T10">
-        <v>0.01285182635212649</v>
+        <v>0.01736012487445741</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,43 +1101,43 @@
         <v>1.436364333333333</v>
       </c>
       <c r="H11">
-        <v>4.309092999999999</v>
+        <v>4.309093</v>
       </c>
       <c r="I11">
-        <v>0.2391639798069812</v>
+        <v>0.2051764974989863</v>
       </c>
       <c r="J11">
-        <v>0.2391639798069812</v>
+        <v>0.2051764974989863</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.008111666666666666</v>
+        <v>0.010918</v>
       </c>
       <c r="N11">
-        <v>0.024335</v>
+        <v>0.032754</v>
       </c>
       <c r="O11">
-        <v>0.0004767283493922972</v>
+        <v>0.0006160189180286153</v>
       </c>
       <c r="P11">
-        <v>0.0004767283493922972</v>
+        <v>0.0006160189180286153</v>
       </c>
       <c r="Q11">
-        <v>0.01165130868388889</v>
+        <v>0.01568222579133333</v>
       </c>
       <c r="R11">
-        <v>0.104861778155</v>
+        <v>0.141140032122</v>
       </c>
       <c r="S11">
-        <v>0.0001140162493274748</v>
+        <v>0.0001263926039942265</v>
       </c>
       <c r="T11">
-        <v>0.0001140162493274748</v>
+        <v>0.0001263926039942265</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.397773</v>
+        <v>2.046430333333333</v>
       </c>
       <c r="H12">
-        <v>4.193319</v>
+        <v>6.139291</v>
       </c>
       <c r="I12">
-        <v>0.2327382724485711</v>
+        <v>0.2923209651096064</v>
       </c>
       <c r="J12">
-        <v>0.2327382724485711</v>
+        <v>0.2923209651096064</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.4403303333333333</v>
+        <v>0.513343</v>
       </c>
       <c r="N12">
-        <v>1.320991</v>
+        <v>1.540029</v>
       </c>
       <c r="O12">
-        <v>0.02587852307343662</v>
+        <v>0.02896400434489499</v>
       </c>
       <c r="P12">
-        <v>0.02587852307343662</v>
+        <v>0.02896400434489499</v>
       </c>
       <c r="Q12">
-        <v>0.6154818510143333</v>
+        <v>1.050520686604333</v>
       </c>
       <c r="R12">
-        <v>5.539336659129</v>
+        <v>9.454686179438999</v>
       </c>
       <c r="S12">
-        <v>0.006022922753632126</v>
+        <v>0.008466785703538537</v>
       </c>
       <c r="T12">
-        <v>0.006022922753632125</v>
+        <v>0.008466785703538537</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.397773</v>
+        <v>2.046430333333333</v>
       </c>
       <c r="H13">
-        <v>4.193319</v>
+        <v>6.139291</v>
       </c>
       <c r="I13">
-        <v>0.2327382724485711</v>
+        <v>0.2923209651096064</v>
       </c>
       <c r="J13">
-        <v>0.2327382724485711</v>
+        <v>0.2923209651096064</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>46.952962</v>
       </c>
       <c r="O13">
-        <v>0.9198195222247485</v>
+        <v>0.8830650561604291</v>
       </c>
       <c r="P13">
-        <v>0.9198195222247485</v>
+        <v>0.8830650561604291</v>
       </c>
       <c r="Q13">
-        <v>21.87652751787533</v>
+        <v>32.02865522554911</v>
       </c>
       <c r="R13">
-        <v>196.888747660878</v>
+        <v>288.257897029942</v>
       </c>
       <c r="S13">
-        <v>0.2140772065670581</v>
+        <v>0.2581384294713854</v>
       </c>
       <c r="T13">
-        <v>0.214077206567058</v>
+        <v>0.2581384294713854</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,46 +1284,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.397773</v>
+        <v>2.046430333333333</v>
       </c>
       <c r="H14">
-        <v>4.193319</v>
+        <v>6.139291</v>
       </c>
       <c r="I14">
-        <v>0.2327382724485711</v>
+        <v>0.2923209651096064</v>
       </c>
       <c r="J14">
-        <v>0.2327382724485711</v>
+        <v>0.2923209651096064</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.001510333333333333</v>
+        <v>0.04863733333333333</v>
       </c>
       <c r="N14">
-        <v>0.004531</v>
+        <v>0.145912</v>
       </c>
       <c r="O14">
-        <v>8.876335118539137E-05</v>
+        <v>0.00274423131121058</v>
       </c>
       <c r="P14">
-        <v>8.876335118539136E-05</v>
+        <v>0.00274423131121058</v>
       </c>
       <c r="Q14">
-        <v>0.002111103154333333</v>
+        <v>0.09953291426577777</v>
       </c>
       <c r="R14">
-        <v>0.018999928389</v>
+        <v>0.8957962283919999</v>
       </c>
       <c r="S14">
-        <v>2.065862901163382E-05</v>
+        <v>0.0008021963453770773</v>
       </c>
       <c r="T14">
-        <v>2.065862901163381E-05</v>
+        <v>0.0008021963453770773</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.397773</v>
+        <v>2.046430333333333</v>
       </c>
       <c r="H15">
-        <v>4.193319</v>
+        <v>6.139291</v>
       </c>
       <c r="I15">
-        <v>0.2327382724485711</v>
+        <v>0.2923209651096064</v>
       </c>
       <c r="J15">
-        <v>0.2327382724485711</v>
+        <v>0.2923209651096064</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.914341</v>
+        <v>1.499596</v>
       </c>
       <c r="N15">
-        <v>2.743023</v>
+        <v>4.498788</v>
       </c>
       <c r="O15">
-        <v>0.0537364630012372</v>
+        <v>0.08461068926543686</v>
       </c>
       <c r="P15">
-        <v>0.0537364630012372</v>
+        <v>0.08461068926543686</v>
       </c>
       <c r="Q15">
-        <v>1.278041162593</v>
+        <v>3.068818742145333</v>
       </c>
       <c r="R15">
-        <v>11.502370463337</v>
+        <v>27.619368679308</v>
       </c>
       <c r="S15">
-        <v>0.01250653156640451</v>
+        <v>0.02473347834466152</v>
       </c>
       <c r="T15">
-        <v>0.01250653156640451</v>
+        <v>0.02473347834466152</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.397773</v>
+        <v>2.046430333333333</v>
       </c>
       <c r="H16">
-        <v>4.193319</v>
+        <v>6.139291</v>
       </c>
       <c r="I16">
-        <v>0.2327382724485711</v>
+        <v>0.2923209651096064</v>
       </c>
       <c r="J16">
-        <v>0.2327382724485711</v>
+        <v>0.2923209651096064</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.008111666666666666</v>
+        <v>0.010918</v>
       </c>
       <c r="N16">
-        <v>0.024335</v>
+        <v>0.032754</v>
       </c>
       <c r="O16">
-        <v>0.0004767283493922972</v>
+        <v>0.0006160189180286153</v>
       </c>
       <c r="P16">
-        <v>0.0004767283493922972</v>
+        <v>0.0006160189180286153</v>
       </c>
       <c r="Q16">
-        <v>0.01133826865166667</v>
+        <v>0.02234292637933333</v>
       </c>
       <c r="R16">
-        <v>0.102044417865</v>
+        <v>0.201086337414</v>
       </c>
       <c r="S16">
-        <v>0.0001109529324648221</v>
+        <v>0.0001800752446439004</v>
       </c>
       <c r="T16">
-        <v>0.0001109529324648221</v>
+        <v>0.0001800752446439004</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.4214396666666667</v>
+        <v>0.6416706666666666</v>
       </c>
       <c r="H17">
-        <v>1.264319</v>
+        <v>1.925012</v>
       </c>
       <c r="I17">
-        <v>0.07017243855855113</v>
+        <v>0.0916590149721806</v>
       </c>
       <c r="J17">
-        <v>0.07017243855855111</v>
+        <v>0.0916590149721806</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.4403303333333333</v>
+        <v>0.513343</v>
       </c>
       <c r="N17">
-        <v>1.320991</v>
+        <v>1.540029</v>
       </c>
       <c r="O17">
-        <v>0.02587852307343662</v>
+        <v>0.02896400434489499</v>
       </c>
       <c r="P17">
-        <v>0.02587852307343662</v>
+        <v>0.02896400434489499</v>
       </c>
       <c r="Q17">
-        <v>0.1855726689032222</v>
+        <v>0.3293971450386666</v>
       </c>
       <c r="R17">
-        <v>1.670154020129</v>
+        <v>2.964574305348</v>
       </c>
       <c r="S17">
-        <v>0.001815959070356779</v>
+        <v>0.002654812107903034</v>
       </c>
       <c r="T17">
-        <v>0.001815959070356778</v>
+        <v>0.002654812107903034</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.4214396666666667</v>
+        <v>0.6416706666666666</v>
       </c>
       <c r="H18">
-        <v>1.264319</v>
+        <v>1.925012</v>
       </c>
       <c r="I18">
-        <v>0.07017243855855113</v>
+        <v>0.0916590149721806</v>
       </c>
       <c r="J18">
-        <v>0.07017243855855111</v>
+        <v>0.0916590149721806</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>46.952962</v>
       </c>
       <c r="O18">
-        <v>0.9198195222247485</v>
+        <v>0.8830650561604291</v>
       </c>
       <c r="P18">
-        <v>0.9198195222247485</v>
+        <v>0.8830650561604291</v>
       </c>
       <c r="Q18">
-        <v>6.595946884764222</v>
+        <v>10.04277947617155</v>
       </c>
       <c r="R18">
-        <v>59.363521962878</v>
+        <v>90.385015285544</v>
       </c>
       <c r="S18">
-        <v>0.06454597890827202</v>
+        <v>0.08094087320401827</v>
       </c>
       <c r="T18">
-        <v>0.064545978908272</v>
+        <v>0.08094087320401827</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,46 +1594,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.4214396666666667</v>
+        <v>0.6416706666666666</v>
       </c>
       <c r="H19">
-        <v>1.264319</v>
+        <v>1.925012</v>
       </c>
       <c r="I19">
-        <v>0.07017243855855113</v>
+        <v>0.0916590149721806</v>
       </c>
       <c r="J19">
-        <v>0.07017243855855111</v>
+        <v>0.0916590149721806</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>0.001510333333333333</v>
+        <v>0.04863733333333333</v>
       </c>
       <c r="N19">
-        <v>0.004531</v>
+        <v>0.145912</v>
       </c>
       <c r="O19">
-        <v>8.876335118539137E-05</v>
+        <v>0.00274423131121058</v>
       </c>
       <c r="P19">
-        <v>8.876335118539136E-05</v>
+        <v>0.00274423131121058</v>
       </c>
       <c r="Q19">
-        <v>0.0006365143765555555</v>
+        <v>0.03120915010488888</v>
       </c>
       <c r="R19">
-        <v>0.005728629389</v>
+        <v>0.280882350944</v>
       </c>
       <c r="S19">
-        <v>6.228740807307972E-06</v>
+        <v>0.0002515335388413773</v>
       </c>
       <c r="T19">
-        <v>6.22874080730797E-06</v>
+        <v>0.0002515335388413773</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.4214396666666667</v>
+        <v>0.6416706666666666</v>
       </c>
       <c r="H20">
-        <v>1.264319</v>
+        <v>1.925012</v>
       </c>
       <c r="I20">
-        <v>0.07017243855855113</v>
+        <v>0.0916590149721806</v>
       </c>
       <c r="J20">
-        <v>0.07017243855855111</v>
+        <v>0.0916590149721806</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.914341</v>
+        <v>1.499596</v>
       </c>
       <c r="N20">
-        <v>2.743023</v>
+        <v>4.498788</v>
       </c>
       <c r="O20">
-        <v>0.0537364630012372</v>
+        <v>0.08461068926543686</v>
       </c>
       <c r="P20">
-        <v>0.0537364630012372</v>
+        <v>0.08461068926543686</v>
       </c>
       <c r="Q20">
-        <v>0.3853395662596666</v>
+        <v>0.9622467650506666</v>
       </c>
       <c r="R20">
-        <v>3.468056096337</v>
+        <v>8.660220885456001</v>
       </c>
       <c r="S20">
-        <v>0.003770818648308174</v>
+        <v>0.007755332434187197</v>
       </c>
       <c r="T20">
-        <v>0.003770818648308173</v>
+        <v>0.007755332434187197</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,46 +1718,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.4214396666666667</v>
+        <v>0.6416706666666666</v>
       </c>
       <c r="H21">
-        <v>1.264319</v>
+        <v>1.925012</v>
       </c>
       <c r="I21">
-        <v>0.07017243855855113</v>
+        <v>0.0916590149721806</v>
       </c>
       <c r="J21">
-        <v>0.07017243855855111</v>
+        <v>0.0916590149721806</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M21">
-        <v>0.008111666666666666</v>
+        <v>0.010918</v>
       </c>
       <c r="N21">
-        <v>0.024335</v>
+        <v>0.032754</v>
       </c>
       <c r="O21">
-        <v>0.0004767283493922972</v>
+        <v>0.0006160189180286153</v>
       </c>
       <c r="P21">
-        <v>0.0004767283493922972</v>
+        <v>0.0006160189180286153</v>
       </c>
       <c r="Q21">
-        <v>0.003418578096111111</v>
+        <v>0.007005760338666666</v>
       </c>
       <c r="R21">
-        <v>0.030767202865</v>
+        <v>0.06305184304799999</v>
       </c>
       <c r="S21">
-        <v>3.345319080685047E-05</v>
+        <v>5.646368723073135E-05</v>
       </c>
       <c r="T21">
-        <v>3.345319080685046E-05</v>
+        <v>5.646368723073135E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>1.34152</v>
+        <v>1.442409666666667</v>
       </c>
       <c r="H22">
-        <v>4.02456</v>
+        <v>4.327229</v>
       </c>
       <c r="I22">
-        <v>0.2233717830114097</v>
+        <v>0.2060400390745897</v>
       </c>
       <c r="J22">
-        <v>0.2233717830114097</v>
+        <v>0.2060400390745897</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.4403303333333333</v>
+        <v>0.513343</v>
       </c>
       <c r="N22">
-        <v>1.320991</v>
+        <v>1.540029</v>
       </c>
       <c r="O22">
-        <v>0.02587852307343662</v>
+        <v>0.02896400434489499</v>
       </c>
       <c r="P22">
-        <v>0.02587852307343662</v>
+        <v>0.02896400434489499</v>
       </c>
       <c r="Q22">
-        <v>0.5907119487733333</v>
+        <v>0.7404509055156666</v>
       </c>
       <c r="R22">
-        <v>5.31640753896</v>
+        <v>6.664058149641</v>
       </c>
       <c r="S22">
-        <v>0.005780531840615444</v>
+        <v>0.00596774458697875</v>
       </c>
       <c r="T22">
-        <v>0.005780531840615444</v>
+        <v>0.00596774458697875</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>1.34152</v>
+        <v>1.442409666666667</v>
       </c>
       <c r="H23">
-        <v>4.02456</v>
+        <v>4.327229</v>
       </c>
       <c r="I23">
-        <v>0.2233717830114097</v>
+        <v>0.2060400390745897</v>
       </c>
       <c r="J23">
-        <v>0.2233717830114097</v>
+        <v>0.2060400390745897</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>46.952962</v>
       </c>
       <c r="O23">
-        <v>0.9198195222247485</v>
+        <v>0.8830650561604291</v>
       </c>
       <c r="P23">
-        <v>0.9198195222247485</v>
+        <v>0.8830650561604291</v>
       </c>
       <c r="Q23">
-        <v>20.99611252741333</v>
+        <v>22.57513542247755</v>
       </c>
       <c r="R23">
-        <v>188.96501274672</v>
+        <v>203.176218802298</v>
       </c>
       <c r="S23">
-        <v>0.2054617267280451</v>
+        <v>0.1819467586766995</v>
       </c>
       <c r="T23">
-        <v>0.2054617267280451</v>
+        <v>0.1819467586766996</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,46 +1904,46 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>1.34152</v>
+        <v>1.442409666666667</v>
       </c>
       <c r="H24">
-        <v>4.02456</v>
+        <v>4.327229</v>
       </c>
       <c r="I24">
-        <v>0.2233717830114097</v>
+        <v>0.2060400390745897</v>
       </c>
       <c r="J24">
-        <v>0.2233717830114097</v>
+        <v>0.2060400390745897</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L24">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M24">
-        <v>0.001510333333333333</v>
+        <v>0.04863733333333333</v>
       </c>
       <c r="N24">
-        <v>0.004531</v>
+        <v>0.145912</v>
       </c>
       <c r="O24">
-        <v>8.876335118539137E-05</v>
+        <v>0.00274423131121058</v>
       </c>
       <c r="P24">
-        <v>8.876335118539136E-05</v>
+        <v>0.00274423131121058</v>
       </c>
       <c r="Q24">
-        <v>0.002026142373333333</v>
+        <v>0.07015495976088888</v>
       </c>
       <c r="R24">
-        <v>0.01823528136</v>
+        <v>0.631394637848</v>
       </c>
       <c r="S24">
-        <v>1.98272280203488E-05</v>
+        <v>0.0005654215265915403</v>
       </c>
       <c r="T24">
-        <v>1.982722802034879E-05</v>
+        <v>0.0005654215265915404</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>1.34152</v>
+        <v>1.442409666666667</v>
       </c>
       <c r="H25">
-        <v>4.02456</v>
+        <v>4.327229</v>
       </c>
       <c r="I25">
-        <v>0.2233717830114097</v>
+        <v>0.2060400390745897</v>
       </c>
       <c r="J25">
-        <v>0.2233717830114097</v>
+        <v>0.2060400390745897</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.914341</v>
+        <v>1.499596</v>
       </c>
       <c r="N25">
-        <v>2.743023</v>
+        <v>4.498788</v>
       </c>
       <c r="O25">
-        <v>0.0537364630012372</v>
+        <v>0.08461068926543686</v>
       </c>
       <c r="P25">
-        <v>0.0537364630012372</v>
+        <v>0.08461068926543686</v>
       </c>
       <c r="Q25">
-        <v>1.22660673832</v>
+        <v>2.163031766494667</v>
       </c>
       <c r="R25">
-        <v>11.03946064488</v>
+        <v>19.467285898452</v>
       </c>
       <c r="S25">
-        <v>0.012003209553313</v>
+        <v>0.01743318972237858</v>
       </c>
       <c r="T25">
-        <v>0.012003209553313</v>
+        <v>0.01743318972237858</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,46 +2028,46 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>1.34152</v>
+        <v>1.442409666666667</v>
       </c>
       <c r="H26">
-        <v>4.02456</v>
+        <v>4.327229</v>
       </c>
       <c r="I26">
-        <v>0.2233717830114097</v>
+        <v>0.2060400390745897</v>
       </c>
       <c r="J26">
-        <v>0.2233717830114097</v>
+        <v>0.2060400390745897</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M26">
-        <v>0.008111666666666666</v>
+        <v>0.010918</v>
       </c>
       <c r="N26">
-        <v>0.024335</v>
+        <v>0.032754</v>
       </c>
       <c r="O26">
-        <v>0.0004767283493922972</v>
+        <v>0.0006160189180286153</v>
       </c>
       <c r="P26">
-        <v>0.0004767283493922972</v>
+        <v>0.0006160189180286153</v>
       </c>
       <c r="Q26">
-        <v>0.01088196306666667</v>
+        <v>0.01574822874066666</v>
       </c>
       <c r="R26">
-        <v>0.0979376676</v>
+        <v>0.141734058666</v>
       </c>
       <c r="S26">
-        <v>0.0001064876614158437</v>
+        <v>0.0001269245619413024</v>
       </c>
       <c r="T26">
-        <v>0.0001064876614158437</v>
+        <v>0.0001269245619413024</v>
       </c>
     </row>
   </sheetData>
